--- a/po_analysis_by_asin/B09N74MYL7_po_data.xlsx
+++ b/po_analysis_by_asin/B09N74MYL7_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,87 +452,87 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45376</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45383</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45390</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45397</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45453</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45481</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>12</v>
@@ -540,17 +540,281 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45509</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45537</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B47" t="n">
         <v>12</v>
       </c>
     </row>
@@ -565,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,31 +851,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>36</v>
@@ -619,33 +883,129 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>12</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09N74MYL7_po_data.xlsx
+++ b/po_analysis_by_asin/B09N74MYL7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -845,7 +846,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1007,6 +1008,803 @@
       </c>
       <c r="B21" t="n">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.5271067943040574</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.40147441483534</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.1820261687052689</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.74968295428741</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.8198697717672082</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.41534075317099</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.820406925766097</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.67688120580234</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.528659376095897</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.24007510919779</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.6020844320315634</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.95549432301565</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.637522609016531</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.99781460982209</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5296443744195011</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.91750307488106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3528492402394646</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.5541118333717</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.350886568724831</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.42678843105342</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.7293934447428303</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.17472578662952</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4046227444137188</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24.75766744706643</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4640824661565389</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.52246460860911</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.663573350724932</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25.14371805180408</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.803894246172023</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26.08037310398392</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.16063972480592</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26.00824043806533</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.505997954489133</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25.50710402975074</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.4760166180176912</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25.02413972559179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03406800192288839</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25.90339339010362</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.163823939970937</v>
+      </c>
+      <c r="D21" t="n">
+        <v>25.32517241857733</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2825779226418432</v>
+      </c>
+      <c r="D22" t="n">
+        <v>26.57453247841655</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2046342919008155</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.58803138475572</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4807511891047375</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.43667148080623</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4885821710578017</v>
+      </c>
+      <c r="D25" t="n">
+        <v>26.48037604382117</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.2361148844738142</v>
+      </c>
+      <c r="D26" t="n">
+        <v>26.85756042061587</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.047336028127639</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26.32307868723293</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2408813597711066</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.11214652606886</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1857030724138984</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25.74620181319534</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.979548033969344</v>
+      </c>
+      <c r="D30" t="n">
+        <v>25.2873130389532</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.028417104254006</v>
+      </c>
+      <c r="D31" t="n">
+        <v>24.54903512591317</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.232863451105629</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.22649682486739</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.8534862539136431</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25.13990741130534</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.5869631302885987</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.72788331135697</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.5866891250688547</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.70736196486773</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1150482964867209</v>
+      </c>
+      <c r="D36" t="n">
+        <v>24.96412126799478</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.8789801709285051</v>
+      </c>
+      <c r="D37" t="n">
+        <v>24.73781481882762</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.947544736075804</v>
+      </c>
+      <c r="D38" t="n">
+        <v>25.20817045242906</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.105138571388012</v>
+      </c>
+      <c r="D39" t="n">
+        <v>25.145434455711</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.3194105872054248</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25.02268569489624</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.142578754124113</v>
+      </c>
+      <c r="D41" t="n">
+        <v>24.77594716038065</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.6558614891311449</v>
+      </c>
+      <c r="D42" t="n">
+        <v>25.25873085631562</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.2246914165477478</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25.50784610143367</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.6895275934550787</v>
+      </c>
+      <c r="D44" t="n">
+        <v>25.69307790768651</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.347690129828965</v>
+      </c>
+      <c r="D45" t="n">
+        <v>25.32699970853373</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1.74322569508891</v>
+      </c>
+      <c r="D46" t="n">
+        <v>26.45934714805481</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.9148155663036598</v>
+      </c>
+      <c r="D47" t="n">
+        <v>24.58926914803034</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.5852531395234977</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25.04604235682412</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.5138890992103153</v>
+      </c>
+      <c r="D49" t="n">
+        <v>25.57852185352675</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1350148653226725</v>
+      </c>
+      <c r="D50" t="n">
+        <v>25.20575479775067</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.09565960846064499</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25.39295363262861</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>12</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.01999409112488</v>
+      </c>
+      <c r="D52" t="n">
+        <v>24.39551406142128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.466181971532182</v>
+      </c>
+      <c r="D53" t="n">
+        <v>25.02646936159381</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.4054136803213905</v>
+      </c>
+      <c r="D54" t="n">
+        <v>24.85715305091874</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.7390450993668164</v>
+      </c>
+      <c r="D55" t="n">
+        <v>26.30186801033419</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09N74MYL7_po_data.xlsx
+++ b/po_analysis_by_asin/B09N74MYL7_po_data.xlsx
@@ -1021,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,16 +1040,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1058,12 +1048,6 @@
       <c r="B2" t="n">
         <v>13</v>
       </c>
-      <c r="C2" t="n">
-        <v>-0.5271067943040574</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.40147441483534</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1072,12 +1056,6 @@
       <c r="B3" t="n">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
-        <v>-0.1820261687052689</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.74968295428741</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1086,12 +1064,6 @@
       <c r="B4" t="n">
         <v>13</v>
       </c>
-      <c r="C4" t="n">
-        <v>-0.8198697717672082</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.41534075317099</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1100,12 +1072,6 @@
       <c r="B5" t="n">
         <v>13</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.820406925766097</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.67688120580234</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1114,12 +1080,6 @@
       <c r="B6" t="n">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
-        <v>-1.528659376095897</v>
-      </c>
-      <c r="D6" t="n">
-        <v>26.24007510919779</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1128,12 +1088,6 @@
       <c r="B7" t="n">
         <v>13</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.6020844320315634</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25.95549432301565</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1142,12 +1096,6 @@
       <c r="B8" t="n">
         <v>13</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.637522609016531</v>
-      </c>
-      <c r="D8" t="n">
-        <v>24.99781460982209</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1156,12 +1104,6 @@
       <c r="B9" t="n">
         <v>13</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.5296443744195011</v>
-      </c>
-      <c r="D9" t="n">
-        <v>26.91750307488106</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1170,12 +1112,6 @@
       <c r="B10" t="n">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
-        <v>-0.3528492402394646</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25.5541118333717</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1184,12 +1120,6 @@
       <c r="B11" t="n">
         <v>13</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.350886568724831</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25.42678843105342</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1198,12 +1128,6 @@
       <c r="B12" t="n">
         <v>12</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.7293934447428303</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25.17472578662952</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1212,12 +1136,6 @@
       <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.4046227444137188</v>
-      </c>
-      <c r="D13" t="n">
-        <v>24.75766744706643</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1226,12 +1144,6 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.4640824661565389</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25.52246460860911</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1240,12 +1152,6 @@
       <c r="B15" t="n">
         <v>12</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.663573350724932</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25.14371805180408</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1254,12 +1160,6 @@
       <c r="B16" t="n">
         <v>12</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.803894246172023</v>
-      </c>
-      <c r="D16" t="n">
-        <v>26.08037310398392</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1268,12 +1168,6 @@
       <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="C17" t="n">
-        <v>-1.16063972480592</v>
-      </c>
-      <c r="D17" t="n">
-        <v>26.00824043806533</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1282,12 +1176,6 @@
       <c r="B18" t="n">
         <v>12</v>
       </c>
-      <c r="C18" t="n">
-        <v>-1.505997954489133</v>
-      </c>
-      <c r="D18" t="n">
-        <v>25.50710402975074</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1296,12 +1184,6 @@
       <c r="B19" t="n">
         <v>12</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.4760166180176912</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25.02413972559179</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1310,12 +1192,6 @@
       <c r="B20" t="n">
         <v>12</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.03406800192288839</v>
-      </c>
-      <c r="D20" t="n">
-        <v>25.90339339010362</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1324,12 +1200,6 @@
       <c r="B21" t="n">
         <v>12</v>
       </c>
-      <c r="C21" t="n">
-        <v>-1.163823939970937</v>
-      </c>
-      <c r="D21" t="n">
-        <v>25.32517241857733</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1338,12 +1208,6 @@
       <c r="B22" t="n">
         <v>12</v>
       </c>
-      <c r="C22" t="n">
-        <v>-0.2825779226418432</v>
-      </c>
-      <c r="D22" t="n">
-        <v>26.57453247841655</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1352,12 +1216,6 @@
       <c r="B23" t="n">
         <v>12</v>
       </c>
-      <c r="C23" t="n">
-        <v>-0.2046342919008155</v>
-      </c>
-      <c r="D23" t="n">
-        <v>25.58803138475572</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1366,12 +1224,6 @@
       <c r="B24" t="n">
         <v>12</v>
       </c>
-      <c r="C24" t="n">
-        <v>-0.4807511891047375</v>
-      </c>
-      <c r="D24" t="n">
-        <v>25.43667148080623</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1380,12 +1232,6 @@
       <c r="B25" t="n">
         <v>12</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.4885821710578017</v>
-      </c>
-      <c r="D25" t="n">
-        <v>26.48037604382117</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1394,12 +1240,6 @@
       <c r="B26" t="n">
         <v>12</v>
       </c>
-      <c r="C26" t="n">
-        <v>-0.2361148844738142</v>
-      </c>
-      <c r="D26" t="n">
-        <v>26.85756042061587</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1408,12 +1248,6 @@
       <c r="B27" t="n">
         <v>12</v>
       </c>
-      <c r="C27" t="n">
-        <v>-1.047336028127639</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26.32307868723293</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1422,12 +1256,6 @@
       <c r="B28" t="n">
         <v>12</v>
       </c>
-      <c r="C28" t="n">
-        <v>-0.2408813597711066</v>
-      </c>
-      <c r="D28" t="n">
-        <v>24.11214652606886</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1436,12 +1264,6 @@
       <c r="B29" t="n">
         <v>12</v>
       </c>
-      <c r="C29" t="n">
-        <v>-0.1857030724138984</v>
-      </c>
-      <c r="D29" t="n">
-        <v>25.74620181319534</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1450,12 +1272,6 @@
       <c r="B30" t="n">
         <v>12</v>
       </c>
-      <c r="C30" t="n">
-        <v>-1.979548033969344</v>
-      </c>
-      <c r="D30" t="n">
-        <v>25.2873130389532</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1464,12 +1280,6 @@
       <c r="B31" t="n">
         <v>12</v>
       </c>
-      <c r="C31" t="n">
-        <v>-1.028417104254006</v>
-      </c>
-      <c r="D31" t="n">
-        <v>24.54903512591317</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1478,12 +1288,6 @@
       <c r="B32" t="n">
         <v>12</v>
       </c>
-      <c r="C32" t="n">
-        <v>-1.232863451105629</v>
-      </c>
-      <c r="D32" t="n">
-        <v>25.22649682486739</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1492,12 +1296,6 @@
       <c r="B33" t="n">
         <v>12</v>
       </c>
-      <c r="C33" t="n">
-        <v>-0.8534862539136431</v>
-      </c>
-      <c r="D33" t="n">
-        <v>25.13990741130534</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1506,12 +1304,6 @@
       <c r="B34" t="n">
         <v>12</v>
       </c>
-      <c r="C34" t="n">
-        <v>-0.5869631302885987</v>
-      </c>
-      <c r="D34" t="n">
-        <v>25.72788331135697</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1520,12 +1312,6 @@
       <c r="B35" t="n">
         <v>12</v>
       </c>
-      <c r="C35" t="n">
-        <v>-0.5866891250688547</v>
-      </c>
-      <c r="D35" t="n">
-        <v>25.70736196486773</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1534,12 +1320,6 @@
       <c r="B36" t="n">
         <v>12</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.1150482964867209</v>
-      </c>
-      <c r="D36" t="n">
-        <v>24.96412126799478</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1548,12 +1328,6 @@
       <c r="B37" t="n">
         <v>12</v>
       </c>
-      <c r="C37" t="n">
-        <v>-0.8789801709285051</v>
-      </c>
-      <c r="D37" t="n">
-        <v>24.73781481882762</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1562,12 +1336,6 @@
       <c r="B38" t="n">
         <v>12</v>
       </c>
-      <c r="C38" t="n">
-        <v>-0.947544736075804</v>
-      </c>
-      <c r="D38" t="n">
-        <v>25.20817045242906</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1576,12 +1344,6 @@
       <c r="B39" t="n">
         <v>12</v>
       </c>
-      <c r="C39" t="n">
-        <v>-1.105138571388012</v>
-      </c>
-      <c r="D39" t="n">
-        <v>25.145434455711</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1590,12 +1352,6 @@
       <c r="B40" t="n">
         <v>12</v>
       </c>
-      <c r="C40" t="n">
-        <v>-0.3194105872054248</v>
-      </c>
-      <c r="D40" t="n">
-        <v>25.02268569489624</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1604,12 +1360,6 @@
       <c r="B41" t="n">
         <v>12</v>
       </c>
-      <c r="C41" t="n">
-        <v>-1.142578754124113</v>
-      </c>
-      <c r="D41" t="n">
-        <v>24.77594716038065</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1618,12 +1368,6 @@
       <c r="B42" t="n">
         <v>12</v>
       </c>
-      <c r="C42" t="n">
-        <v>-0.6558614891311449</v>
-      </c>
-      <c r="D42" t="n">
-        <v>25.25873085631562</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1632,12 +1376,6 @@
       <c r="B43" t="n">
         <v>12</v>
       </c>
-      <c r="C43" t="n">
-        <v>-0.2246914165477478</v>
-      </c>
-      <c r="D43" t="n">
-        <v>25.50784610143367</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1646,12 +1384,6 @@
       <c r="B44" t="n">
         <v>12</v>
       </c>
-      <c r="C44" t="n">
-        <v>-0.6895275934550787</v>
-      </c>
-      <c r="D44" t="n">
-        <v>25.69307790768651</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1660,12 +1392,6 @@
       <c r="B45" t="n">
         <v>12</v>
       </c>
-      <c r="C45" t="n">
-        <v>-0.347690129828965</v>
-      </c>
-      <c r="D45" t="n">
-        <v>25.32699970853373</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1674,12 +1400,6 @@
       <c r="B46" t="n">
         <v>12</v>
       </c>
-      <c r="C46" t="n">
-        <v>-1.74322569508891</v>
-      </c>
-      <c r="D46" t="n">
-        <v>26.45934714805481</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1688,12 +1408,6 @@
       <c r="B47" t="n">
         <v>12</v>
       </c>
-      <c r="C47" t="n">
-        <v>-0.9148155663036598</v>
-      </c>
-      <c r="D47" t="n">
-        <v>24.58926914803034</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1702,12 +1416,6 @@
       <c r="B48" t="n">
         <v>12</v>
       </c>
-      <c r="C48" t="n">
-        <v>-0.5852531395234977</v>
-      </c>
-      <c r="D48" t="n">
-        <v>25.04604235682412</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1716,12 +1424,6 @@
       <c r="B49" t="n">
         <v>12</v>
       </c>
-      <c r="C49" t="n">
-        <v>-0.5138890992103153</v>
-      </c>
-      <c r="D49" t="n">
-        <v>25.57852185352675</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1730,12 +1432,6 @@
       <c r="B50" t="n">
         <v>12</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.1350148653226725</v>
-      </c>
-      <c r="D50" t="n">
-        <v>25.20575479775067</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1744,12 +1440,6 @@
       <c r="B51" t="n">
         <v>12</v>
       </c>
-      <c r="C51" t="n">
-        <v>-0.09565960846064499</v>
-      </c>
-      <c r="D51" t="n">
-        <v>25.39295363262861</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1758,12 +1448,6 @@
       <c r="B52" t="n">
         <v>12</v>
       </c>
-      <c r="C52" t="n">
-        <v>-1.01999409112488</v>
-      </c>
-      <c r="D52" t="n">
-        <v>24.39551406142128</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1772,12 +1456,6 @@
       <c r="B53" t="n">
         <v>12</v>
       </c>
-      <c r="C53" t="n">
-        <v>-0.466181971532182</v>
-      </c>
-      <c r="D53" t="n">
-        <v>25.02646936159381</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1786,12 +1464,6 @@
       <c r="B54" t="n">
         <v>12</v>
       </c>
-      <c r="C54" t="n">
-        <v>-0.4054136803213905</v>
-      </c>
-      <c r="D54" t="n">
-        <v>24.85715305091874</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1799,12 +1471,6 @@
       </c>
       <c r="B55" t="n">
         <v>12</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-0.7390450993668164</v>
-      </c>
-      <c r="D55" t="n">
-        <v>26.30186801033419</v>
       </c>
     </row>
   </sheetData>
